--- a/CLP03N.xlsx
+++ b/CLP03N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="282">
   <si>
     <t/>
   </si>
@@ -607,7 +607,7 @@
     <t>20138976</t>
   </si>
   <si>
-    <t>FIESTA BAKSO CH.LAVA</t>
+    <t>FIESTA BAKSO CH.LV55</t>
   </si>
   <si>
     <t>20140367</t>
@@ -700,13 +700,25 @@
     <t>SOSIS EAT PEDAS 65G</t>
   </si>
   <si>
+    <t>20140884</t>
+  </si>
+  <si>
+    <t>SG KOREA BULDAK 58G</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>20124745</t>
   </si>
   <si>
     <t>S/N SS PRMIUM KEJU60</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20140885</t>
+  </si>
+  <si>
+    <t>SG KOREA CHS BLDK 58</t>
   </si>
   <si>
     <t>20132652</t>
@@ -1237,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F125"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3284,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,7 +3333,7 @@
         <v>231</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -3341,10 +3353,10 @@
         <v>231</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3361,7 +3373,7 @@
         <v>231</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3381,7 +3393,7 @@
         <v>231</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>9</v>
@@ -3401,7 +3413,7 @@
         <v>231</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3418,10 +3430,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>9</v>
@@ -3429,19 +3441,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
@@ -3449,19 +3461,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
@@ -3478,10 +3490,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>9</v>
@@ -3498,10 +3510,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>9</v>
@@ -3518,10 +3530,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -3529,19 +3541,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3549,19 +3561,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3578,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>9</v>
@@ -3598,10 +3610,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
@@ -3609,19 +3621,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
@@ -3629,19 +3641,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
@@ -3658,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -3678,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -3689,21 +3701,61 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="B124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CLP03N.xlsx
+++ b/CLP03N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="279">
   <si>
     <t/>
   </si>
@@ -544,6 +544,12 @@
     <t>CMORY BITES YUZU 120</t>
   </si>
   <si>
+    <t>20141051</t>
+  </si>
+  <si>
+    <t>CMRY EAT MILK MATCHA</t>
+  </si>
+  <si>
     <t>20135436</t>
   </si>
   <si>
@@ -643,24 +649,6 @@
     <t>HB GREEK YGR PEC 100</t>
   </si>
   <si>
-    <t>20080420</t>
-  </si>
-  <si>
-    <t>GRNFIELDS YOG ORG125</t>
-  </si>
-  <si>
-    <t>20080421</t>
-  </si>
-  <si>
-    <t>GRNFIELDS YOG STR125</t>
-  </si>
-  <si>
-    <t>20080423</t>
-  </si>
-  <si>
-    <t>GRNFIELDS YOG MGO125</t>
-  </si>
-  <si>
     <t>20114582</t>
   </si>
   <si>
@@ -776,6 +764,9 @@
   </si>
   <si>
     <t>FIESTA SMY AYM RTG54</t>
+  </si>
+  <si>
+    <t>,(E-7H)</t>
   </si>
   <si>
     <t>20132114</t>
@@ -1249,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F123"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2810,10 +2801,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -2821,19 +2812,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>9</v>
@@ -2850,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>9</v>
@@ -2870,10 +2861,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>9</v>
@@ -2890,10 +2881,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -2910,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -2921,19 +2912,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -2950,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
@@ -2970,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>9</v>
@@ -2990,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
@@ -3010,10 +3001,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>9</v>
@@ -3030,10 +3021,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>9</v>
@@ -3050,7 +3041,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>39</v>
@@ -3070,33 +3061,33 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,13 +3101,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,50 +3121,50 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -3190,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3210,10 +3201,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>9</v>
@@ -3230,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -3250,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>9</v>
@@ -3261,39 +3252,39 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E101" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
@@ -3310,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>72</v>
@@ -3330,10 +3321,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -3350,13 +3341,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,10 +3361,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3390,10 +3381,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>9</v>
@@ -3410,10 +3401,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3430,10 +3421,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>9</v>
@@ -3441,19 +3432,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E110" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
@@ -3461,39 +3452,39 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>9</v>
@@ -3501,19 +3492,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>9</v>
@@ -3521,19 +3512,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -3541,19 +3532,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3561,19 +3552,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3581,39 +3572,39 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
@@ -3621,19 +3612,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
@@ -3641,19 +3632,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
@@ -3661,19 +3652,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -3681,19 +3672,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>9</v>
@@ -3701,61 +3692,21 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CLP03N.xlsx
+++ b/CLP03N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="280">
   <si>
     <t/>
   </si>
@@ -766,9 +766,6 @@
     <t>FIESTA SMY AYM RTG54</t>
   </si>
   <si>
-    <t>,(E-7H)</t>
-  </si>
-  <si>
     <t>20132114</t>
   </si>
   <si>
@@ -848,6 +845,12 @@
   </si>
   <si>
     <t>KNZLER SNGL GCHJNG60</t>
+  </si>
+  <si>
+    <t>20141057</t>
+  </si>
+  <si>
+    <t>KZLER SS TOM YUM 60G</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3467,15 +3470,15 @@
         <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3492,10 +3495,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3512,16 +3515,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>4</v>
@@ -3532,16 +3535,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>8</v>
@@ -3552,16 +3555,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>15</v>
@@ -3572,36 +3575,36 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>4</v>
@@ -3612,16 +3615,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>8</v>
@@ -3632,16 +3635,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>15</v>
@@ -3652,16 +3655,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>24</v>
@@ -3672,16 +3675,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>4</v>
@@ -3692,21 +3695,41 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CLP03N.xlsx
+++ b/CLP03N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="276">
   <si>
     <t/>
   </si>
@@ -460,12 +460,6 @@
     <t>CMORY LOW.F ST&amp;M 240</t>
   </si>
   <si>
-    <t>20030414</t>
-  </si>
-  <si>
-    <t>CIMORY YGRT LYCHE240</t>
-  </si>
-  <si>
     <t>20023797</t>
   </si>
   <si>
@@ -536,12 +530,6 @@
   </si>
   <si>
     <t>CMORY EAT MLK CHO 80</t>
-  </si>
-  <si>
-    <t>20135337</t>
-  </si>
-  <si>
-    <t>CMORY BITES YUZU 120</t>
   </si>
   <si>
     <t>20141051</t>
@@ -1243,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F122"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2527,7 +2515,7 @@
         <v>58</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2547,7 +2535,7 @@
         <v>58</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2567,7 +2555,7 @@
         <v>58</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2587,7 +2575,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>9</v>
@@ -2604,10 +2592,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -2627,7 +2615,7 @@
         <v>61</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>9</v>
@@ -2647,7 +2635,7 @@
         <v>61</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>9</v>
@@ -2667,7 +2655,7 @@
         <v>61</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>9</v>
@@ -2687,7 +2675,7 @@
         <v>61</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>9</v>
@@ -2704,10 +2692,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>9</v>
@@ -2727,7 +2715,7 @@
         <v>102</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2747,7 +2735,7 @@
         <v>102</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>9</v>
@@ -2767,7 +2755,7 @@
         <v>102</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>9</v>
@@ -2784,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>9</v>
@@ -2795,19 +2783,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -2815,19 +2803,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>9</v>
@@ -2844,10 +2832,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>9</v>
@@ -2864,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>9</v>
@@ -2884,10 +2872,10 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -2895,19 +2883,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="E83" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -2915,19 +2903,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -2944,10 +2932,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
@@ -2964,10 +2952,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>9</v>
@@ -2984,10 +2972,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
@@ -3004,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>9</v>
@@ -3024,10 +3012,10 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>9</v>
@@ -3044,90 +3032,90 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>9</v>
@@ -3144,10 +3132,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>9</v>
@@ -3164,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -3184,10 +3172,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3204,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>9</v>
@@ -3215,39 +3203,39 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>9</v>
@@ -3264,10 +3252,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>72</v>
@@ -3284,10 +3272,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
@@ -3304,13 +3292,13 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -3344,10 +3332,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -3364,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3384,10 +3372,10 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>9</v>
@@ -3395,19 +3383,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3415,19 +3403,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>9</v>
@@ -3444,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
@@ -3464,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
@@ -3484,10 +3472,10 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>9</v>
@@ -3495,19 +3483,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>9</v>
@@ -3515,19 +3503,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -3544,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3564,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3575,19 +3563,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>9</v>
@@ -3595,19 +3583,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
@@ -3624,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
@@ -3644,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
@@ -3655,19 +3643,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E121" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -3675,61 +3663,21 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/CLP03N.xlsx
+++ b/CLP03N.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="274">
   <si>
     <t/>
   </si>
@@ -133,6 +133,18 @@
     <t>9</t>
   </si>
   <si>
+    <t>20141328</t>
+  </si>
+  <si>
+    <t>KIN DZ CHOC MILK 80G</t>
+  </si>
+  <si>
+    <t>20141327</t>
+  </si>
+  <si>
+    <t>KIN DZ CHO ALMND 80G</t>
+  </si>
+  <si>
     <t>20033350</t>
   </si>
   <si>
@@ -259,24 +271,6 @@
     <t>W/COCO PUDD MNGO 120</t>
   </si>
   <si>
-    <t>20048311</t>
-  </si>
-  <si>
-    <t>MANISAN/F MANGGA PDS</t>
-  </si>
-  <si>
-    <t>20049831</t>
-  </si>
-  <si>
-    <t>MANISAN/F MANGGA MNS</t>
-  </si>
-  <si>
-    <t>20045162</t>
-  </si>
-  <si>
-    <t>MNSAN FRSH SALAK PDS</t>
-  </si>
-  <si>
     <t>20119852</t>
   </si>
   <si>
@@ -319,205 +313,205 @@
     <t>EOMUK BAR CHEESE 65G</t>
   </si>
   <si>
+    <t>20140035</t>
+  </si>
+  <si>
+    <t>CIMORY THICK ORNG 40</t>
+  </si>
+  <si>
+    <t>20129787</t>
+  </si>
+  <si>
+    <t>CMORY YOG.T&amp;C STRW40</t>
+  </si>
+  <si>
+    <t>20140036</t>
+  </si>
+  <si>
+    <t>CIMORY THICK GRPE 40</t>
+  </si>
+  <si>
+    <t>20131933</t>
+  </si>
+  <si>
+    <t>CMORY YOG.T&amp;C BLUE40</t>
+  </si>
+  <si>
+    <t>20115752</t>
+  </si>
+  <si>
+    <t>KIN YGR SLURP BLU 45</t>
+  </si>
+  <si>
+    <t>20115753</t>
+  </si>
+  <si>
+    <t>KIN YGR SLURP STR 45</t>
+  </si>
+  <si>
+    <t>20133218</t>
+  </si>
+  <si>
+    <t>KIN B/YOG BLACK 45G</t>
+  </si>
+  <si>
+    <t>20135664</t>
+  </si>
+  <si>
+    <t>KIN YGR SLURP MARS45</t>
+  </si>
+  <si>
+    <t>20124746</t>
+  </si>
+  <si>
+    <t>S/N SS PRM SMK/BRT60</t>
+  </si>
+  <si>
+    <t>20124744</t>
+  </si>
+  <si>
+    <t>S/N SS PRMIUM ORI 60</t>
+  </si>
+  <si>
+    <t>20133604</t>
+  </si>
+  <si>
+    <t>CMORY YOG.T&amp;C ORIG40</t>
+  </si>
+  <si>
+    <t>20134040</t>
+  </si>
+  <si>
+    <t>CMORY YOG.T&amp;C MNGO40</t>
+  </si>
+  <si>
+    <t>20084429</t>
+  </si>
+  <si>
+    <t>KIN YOGURT ORGNL 200</t>
+  </si>
+  <si>
+    <t>20084430</t>
+  </si>
+  <si>
+    <t>KIN YOGURT SRTW 200</t>
+  </si>
+  <si>
+    <t>20090512</t>
+  </si>
+  <si>
+    <t>KIN YOGURT BLUBR 200</t>
+  </si>
+  <si>
+    <t>20117940</t>
+  </si>
+  <si>
+    <t>KIN B/YOGRT BLCK 200</t>
+  </si>
+  <si>
+    <t>20133220</t>
+  </si>
+  <si>
+    <t>KIN B/YOG MANG-GO200</t>
+  </si>
+  <si>
+    <t>20095318</t>
+  </si>
+  <si>
+    <t>GRNFIELDS YOG BLU240</t>
+  </si>
+  <si>
+    <t>20095317</t>
+  </si>
+  <si>
+    <t>GRNFIELDS YOG STR240</t>
+  </si>
+  <si>
+    <t>20028005</t>
+  </si>
+  <si>
+    <t>CIMORY YGRT BLBRY240</t>
+  </si>
+  <si>
+    <t>20015231</t>
+  </si>
+  <si>
+    <t>CIMORY YOGHRT STR240</t>
+  </si>
+  <si>
+    <t>20052812</t>
+  </si>
+  <si>
+    <t>CIMORY MIX BERRY 240</t>
+  </si>
+  <si>
+    <t>20103269</t>
+  </si>
+  <si>
+    <t>CMORY LOW.F ST&amp;M 240</t>
+  </si>
+  <si>
+    <t>20023797</t>
+  </si>
+  <si>
+    <t>CIMORY YOGHRT MIX240</t>
+  </si>
+  <si>
+    <t>20140123</t>
+  </si>
+  <si>
+    <t>CIMORY STRAWBRY 240</t>
+  </si>
+  <si>
+    <t>20140122</t>
+  </si>
+  <si>
+    <t>CIMORY BLUEBERRY 240</t>
+  </si>
+  <si>
+    <t>20140171</t>
+  </si>
+  <si>
+    <t>CIMORY TR.FRUIT 240</t>
+  </si>
+  <si>
+    <t>20102569</t>
+  </si>
+  <si>
+    <t>CMORY SQZE BLUBR 120</t>
+  </si>
+  <si>
+    <t>20102567</t>
+  </si>
+  <si>
+    <t>CIMORY SQZE STRW 120</t>
+  </si>
+  <si>
+    <t>20102570</t>
+  </si>
+  <si>
+    <t>CIMORY SQZE ORGN 120</t>
+  </si>
+  <si>
+    <t>20118503</t>
+  </si>
+  <si>
+    <t>CIMORY SQZ MANGO 120</t>
+  </si>
+  <si>
+    <t>20122460</t>
+  </si>
+  <si>
+    <t>CMORY SQZ BR/SGR 120</t>
+  </si>
+  <si>
+    <t>20138151</t>
+  </si>
+  <si>
+    <t>CMORY EAT MLK MRIE80</t>
+  </si>
+  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>20140035</t>
-  </si>
-  <si>
-    <t>CIMORY THICK ORNG 40</t>
-  </si>
-  <si>
-    <t>20129787</t>
-  </si>
-  <si>
-    <t>CMORY YOG.T&amp;C STRW40</t>
-  </si>
-  <si>
-    <t>20140036</t>
-  </si>
-  <si>
-    <t>CIMORY THICK GRPE 40</t>
-  </si>
-  <si>
-    <t>20131933</t>
-  </si>
-  <si>
-    <t>CMORY YOG.T&amp;C BLUE40</t>
-  </si>
-  <si>
-    <t>20115752</t>
-  </si>
-  <si>
-    <t>KIN YGR SLURP BLU 45</t>
-  </si>
-  <si>
-    <t>20115753</t>
-  </si>
-  <si>
-    <t>KIN YGR SLURP STR 45</t>
-  </si>
-  <si>
-    <t>20133218</t>
-  </si>
-  <si>
-    <t>KIN B/YOG BLACK 45G</t>
-  </si>
-  <si>
-    <t>20135664</t>
-  </si>
-  <si>
-    <t>KIN YGR SLURP MARS45</t>
-  </si>
-  <si>
-    <t>20124746</t>
-  </si>
-  <si>
-    <t>S/N SS PRM SMK/BRT60</t>
-  </si>
-  <si>
-    <t>20124744</t>
-  </si>
-  <si>
-    <t>S/N SS PRMIUM ORI 60</t>
-  </si>
-  <si>
-    <t>20133604</t>
-  </si>
-  <si>
-    <t>CMORY YOG.T&amp;C ORIG40</t>
-  </si>
-  <si>
-    <t>20134040</t>
-  </si>
-  <si>
-    <t>CMORY YOG.T&amp;C MNGO40</t>
-  </si>
-  <si>
-    <t>20084429</t>
-  </si>
-  <si>
-    <t>KIN YOGURT ORGNL 200</t>
-  </si>
-  <si>
-    <t>20084430</t>
-  </si>
-  <si>
-    <t>KIN YOGURT SRTW 200</t>
-  </si>
-  <si>
-    <t>20090512</t>
-  </si>
-  <si>
-    <t>KIN YOGURT BLUBR 200</t>
-  </si>
-  <si>
-    <t>20117940</t>
-  </si>
-  <si>
-    <t>KIN B/YOGRT BLCK 200</t>
-  </si>
-  <si>
-    <t>20133220</t>
-  </si>
-  <si>
-    <t>KIN B/YOG MANG-GO200</t>
-  </si>
-  <si>
-    <t>20095318</t>
-  </si>
-  <si>
-    <t>GRNFIELDS YOG BLU240</t>
-  </si>
-  <si>
-    <t>20095317</t>
-  </si>
-  <si>
-    <t>GRNFIELDS YOG STR240</t>
-  </si>
-  <si>
-    <t>20028005</t>
-  </si>
-  <si>
-    <t>CIMORY YGRT BLBRY240</t>
-  </si>
-  <si>
-    <t>20015231</t>
-  </si>
-  <si>
-    <t>CIMORY YOGHRT STR240</t>
-  </si>
-  <si>
-    <t>20052812</t>
-  </si>
-  <si>
-    <t>CIMORY MIX BERRY 240</t>
-  </si>
-  <si>
-    <t>20103269</t>
-  </si>
-  <si>
-    <t>CMORY LOW.F ST&amp;M 240</t>
-  </si>
-  <si>
-    <t>20023797</t>
-  </si>
-  <si>
-    <t>CIMORY YOGHRT MIX240</t>
-  </si>
-  <si>
-    <t>20140123</t>
-  </si>
-  <si>
-    <t>CIMORY STRAWBRY 240</t>
-  </si>
-  <si>
-    <t>20140122</t>
-  </si>
-  <si>
-    <t>CIMORY BLUEBERRY 240</t>
-  </si>
-  <si>
-    <t>20140171</t>
-  </si>
-  <si>
-    <t>CIMORY TR.FRUIT 240</t>
-  </si>
-  <si>
-    <t>20102569</t>
-  </si>
-  <si>
-    <t>CMORY SQZE BLUBR 120</t>
-  </si>
-  <si>
-    <t>20102567</t>
-  </si>
-  <si>
-    <t>CIMORY SQZE STRW 120</t>
-  </si>
-  <si>
-    <t>20102570</t>
-  </si>
-  <si>
-    <t>CIMORY SQZE ORGN 120</t>
-  </si>
-  <si>
-    <t>20118503</t>
-  </si>
-  <si>
-    <t>CIMORY SQZ MANGO 120</t>
-  </si>
-  <si>
-    <t>20122460</t>
-  </si>
-  <si>
-    <t>CMORY SQZ BR/SGR 120</t>
-  </si>
-  <si>
-    <t>20138151</t>
-  </si>
-  <si>
-    <t>CMORY EAT MLK MRIE80</t>
   </si>
   <si>
     <t>20138147</t>
@@ -1231,7 +1225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F121"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1515,10 +1509,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,10 +1529,10 @@
         <v>24</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1555,7 +1549,7 @@
         <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -1575,7 +1569,7 @@
         <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -1595,18 +1589,18 @@
         <v>24</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1615,18 +1609,18 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1635,18 +1629,18 @@
         <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1655,18 +1649,18 @@
         <v>24</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1675,58 +1669,58 @@
         <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1735,18 +1729,18 @@
         <v>27</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1755,18 +1749,18 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1775,18 +1769,18 @@
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1795,18 +1789,18 @@
         <v>27</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1815,18 +1809,18 @@
         <v>27</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1835,10 +1829,10 @@
         <v>27</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1852,13 +1846,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1872,13 +1866,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,10 +1889,10 @@
         <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,7 +1909,7 @@
         <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
@@ -1935,7 +1929,7 @@
         <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
@@ -1955,7 +1949,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
@@ -1975,7 +1969,7 @@
         <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -1995,7 +1989,7 @@
         <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -2015,7 +2009,7 @@
         <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>9</v>
@@ -2032,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>9</v>
@@ -2043,10 +2037,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2055,7 +2049,7 @@
         <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>9</v>
@@ -2063,10 +2057,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2083,10 +2077,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2095,7 +2089,7 @@
         <v>39</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>9</v>
@@ -2103,10 +2097,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2115,18 +2109,18 @@
         <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2135,7 +2129,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>21</v>
@@ -2143,10 +2137,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2155,7 +2149,7 @@
         <v>39</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>21</v>
@@ -2163,10 +2157,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2175,7 +2169,7 @@
         <v>39</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>21</v>
@@ -2183,10 +2177,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2195,18 +2189,18 @@
         <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2215,47 +2209,47 @@
         <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -2263,19 +2257,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -2283,19 +2277,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>9</v>
@@ -2303,19 +2297,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>9</v>
@@ -2323,79 +2317,79 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>9</v>
@@ -2403,19 +2397,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>9</v>
@@ -2423,19 +2417,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>9</v>
@@ -2443,19 +2437,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>9</v>
@@ -2463,19 +2457,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>9</v>
@@ -2483,19 +2477,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>9</v>
@@ -2503,19 +2497,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>9</v>
@@ -2523,19 +2517,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -2543,19 +2537,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -2563,19 +2557,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>9</v>
@@ -2583,19 +2577,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -2603,19 +2597,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>9</v>
@@ -2623,19 +2617,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>9</v>
@@ -2643,19 +2637,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>9</v>
@@ -2663,19 +2657,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>9</v>
@@ -2692,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>9</v>
@@ -2712,10 +2706,10 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -2732,10 +2726,10 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>9</v>
@@ -2752,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>9</v>
@@ -2763,19 +2757,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>9</v>
@@ -2792,10 +2786,10 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -2812,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>9</v>
@@ -2832,10 +2826,10 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>9</v>
@@ -2852,10 +2846,10 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>9</v>
@@ -2863,19 +2857,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -2892,10 +2886,10 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -2912,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -2932,10 +2926,10 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>9</v>
@@ -2952,10 +2946,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>9</v>
@@ -2972,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
@@ -2992,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>39</v>
@@ -3012,33 +3006,33 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,27 +3046,27 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>4</v>
@@ -3092,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -3112,10 +3106,10 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>9</v>
@@ -3132,10 +3126,10 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>9</v>
@@ -3152,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>9</v>
@@ -3172,10 +3166,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
@@ -3183,22 +3177,22 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3212,13 +3206,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,13 +3226,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3252,13 +3246,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,10 +3266,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
@@ -3292,10 +3286,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>9</v>
@@ -3312,10 +3306,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -3332,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -3352,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -3363,19 +3357,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>9</v>
@@ -3392,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>9</v>
@@ -3412,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>9</v>
@@ -3432,10 +3426,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
@@ -3452,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
@@ -3463,19 +3457,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>9</v>
@@ -3492,10 +3486,10 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>9</v>
@@ -3512,10 +3506,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -3532,10 +3526,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -3543,19 +3537,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -3572,10 +3566,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>9</v>
@@ -3592,10 +3586,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
@@ -3612,10 +3606,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
@@ -3623,19 +3617,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>9</v>
@@ -3652,32 +3646,12 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="1" t="s">
         <v>9</v>
       </c>
     </row>
